--- a/LPBF_ML_Model_Evaluation_A_plots.xlsx
+++ b/LPBF_ML_Model_Evaluation_A_plots.xlsx
@@ -1,50 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radif\PycharmProjects\DataAug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E1FF01-CFE0-470C-87FF-9A17BE333712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B3982-8D66-4F75-B6F0-728559AFB25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="826" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15375" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="width" sheetId="6" r:id="rId1"/>
-    <sheet name="depth" sheetId="7" r:id="rId2"/>
-    <sheet name="LPBF_ML_Model_Evaluation_Po (2)" sheetId="25" r:id="rId3"/>
-    <sheet name="LPBF_ML_Model_Evaluation_Po (3)" sheetId="26" r:id="rId4"/>
-    <sheet name="LPBF_ML_Model_Evaluation_Sy (4)" sheetId="27" r:id="rId5"/>
-    <sheet name="LPBF_ML_Model_Evaluation_Sy (5)" sheetId="28" r:id="rId6"/>
-    <sheet name="LPBF_ML_Model_Evaluation_Sy (6)" sheetId="29" r:id="rId7"/>
-    <sheet name="LPBF_ML_Model_Evaluation_BaseMo" sheetId="16" r:id="rId8"/>
-    <sheet name="LPBF_ML_Model_Evaluation_Poly12" sheetId="21" r:id="rId9"/>
-    <sheet name="LPBF_ML_Model_Evaluation_Poly6_" sheetId="20" r:id="rId10"/>
-    <sheet name="LPBF_ML_Model_Evaluation_Synthe" sheetId="22" r:id="rId11"/>
-    <sheet name="LPBF_ML_Model_Evaluation_Sy (2)" sheetId="23" r:id="rId12"/>
-    <sheet name="LPBF_ML_Model_Evaluation_Sy (3)" sheetId="24" r:id="rId13"/>
-    <sheet name="LPBF_ML_Model_Evaluation_HpTuni" sheetId="18" r:id="rId14"/>
-    <sheet name="LPBF_ML_Model_Evaluation_Ba (2)" sheetId="17" r:id="rId15"/>
-    <sheet name="LPBF_ML_Model_Evaluation_Hp (2)" sheetId="19" r:id="rId16"/>
+    <sheet name="gaussianHP" sheetId="31" r:id="rId1"/>
+    <sheet name="bestModels" sheetId="30" r:id="rId2"/>
+    <sheet name="width" sheetId="6" r:id="rId3"/>
+    <sheet name="depth" sheetId="7" r:id="rId4"/>
+    <sheet name="LPBF_ML_Model_Evaluation_Po (2)" sheetId="25" r:id="rId5"/>
+    <sheet name="LPBF_ML_Model_Evaluation_Po (3)" sheetId="26" r:id="rId6"/>
+    <sheet name="LPBF_ML_Model_Evaluation_Sy (4)" sheetId="27" r:id="rId7"/>
+    <sheet name="LPBF_ML_Model_Evaluation_Sy (5)" sheetId="28" r:id="rId8"/>
+    <sheet name="LPBF_ML_Model_Evaluation_Sy (6)" sheetId="29" r:id="rId9"/>
+    <sheet name="LPBF_ML_Model_Evaluation_BaseMo" sheetId="16" r:id="rId10"/>
+    <sheet name="LPBF_ML_Model_Evaluation_Poly12" sheetId="21" r:id="rId11"/>
+    <sheet name="LPBF_ML_Model_Evaluation_Poly6_" sheetId="20" r:id="rId12"/>
+    <sheet name="LPBF_ML_Model_Evaluation_Synthe" sheetId="22" r:id="rId13"/>
+    <sheet name="LPBF_ML_Model_Evaluation_Sy (2)" sheetId="23" r:id="rId14"/>
+    <sheet name="LPBF_ML_Model_Evaluation_Sy (3)" sheetId="24" r:id="rId15"/>
+    <sheet name="LPBF_ML_Model_Evaluation_HpTuni" sheetId="18" r:id="rId16"/>
+    <sheet name="LPBF_ML_Model_Evaluation_Ba (2)" sheetId="17" r:id="rId17"/>
+    <sheet name="LPBF_ML_Model_Evaluation_Hp (2)" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="14" hidden="1">'LPBF_ML_Model_Evaluation_Ba (2)'!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_1" localSheetId="7" hidden="1">LPBF_ML_Model_Evaluation_BaseMo!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_1" localSheetId="13" hidden="1">LPBF_ML_Model_Evaluation_HpTuni!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'LPBF_ML_Model_Evaluation_Po (2)'!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'LPBF_ML_Model_Evaluation_Po (3)'!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_1" localSheetId="11" hidden="1">'LPBF_ML_Model_Evaluation_Sy (2)'!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_1" localSheetId="12" hidden="1">'LPBF_ML_Model_Evaluation_Sy (3)'!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'LPBF_ML_Model_Evaluation_Sy (4)'!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">'LPBF_ML_Model_Evaluation_Sy (5)'!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_1" localSheetId="6" hidden="1">'LPBF_ML_Model_Evaluation_Sy (6)'!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_1" localSheetId="10" hidden="1">LPBF_ML_Model_Evaluation_Synthe!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_2" localSheetId="15" hidden="1">'LPBF_ML_Model_Evaluation_Hp (2)'!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_2" localSheetId="9" hidden="1">LPBF_ML_Model_Evaluation_Poly6_!$A$1:$F$12</definedName>
-    <definedName name="ExternalData_3" localSheetId="8" hidden="1">LPBF_ML_Model_Evaluation_Poly12!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="16" hidden="1">'LPBF_ML_Model_Evaluation_Ba (2)'!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="9" hidden="1">LPBF_ML_Model_Evaluation_BaseMo!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="15" hidden="1">LPBF_ML_Model_Evaluation_HpTuni!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'LPBF_ML_Model_Evaluation_Po (2)'!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">'LPBF_ML_Model_Evaluation_Po (3)'!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="13" hidden="1">'LPBF_ML_Model_Evaluation_Sy (2)'!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="14" hidden="1">'LPBF_ML_Model_Evaluation_Sy (3)'!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="6" hidden="1">'LPBF_ML_Model_Evaluation_Sy (4)'!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="7" hidden="1">'LPBF_ML_Model_Evaluation_Sy (5)'!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="8" hidden="1">'LPBF_ML_Model_Evaluation_Sy (6)'!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="12" hidden="1">LPBF_ML_Model_Evaluation_Synthe!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_2" localSheetId="17" hidden="1">'LPBF_ML_Model_Evaluation_Hp (2)'!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_2" localSheetId="11" hidden="1">LPBF_ML_Model_Evaluation_Poly6_!$A$1:$F$12</definedName>
+    <definedName name="ExternalData_3" localSheetId="10" hidden="1">LPBF_ML_Model_Evaluation_Poly12!$A$1:$F$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -114,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="39">
   <si>
     <t>Model</t>
   </si>
@@ -187,13 +189,59 @@
   <si>
     <t>MAE - Synthetic Data - 3831</t>
   </si>
+  <si>
+    <t>Base Model</t>
+  </si>
+  <si>
+    <t>Hyperparameter Tuning</t>
+  </si>
+  <si>
+    <t>Polynomial Feature Expansion</t>
+  </si>
+  <si>
+    <t>Synthetic Data Generation</t>
+  </si>
+  <si>
+    <t>Extra Trees (Melt-Pool Width)</t>
+  </si>
+  <si>
+    <t>Gaussian Process (Melt-Pool Depth)</t>
+  </si>
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>1**2 * RBF(length_scale=1)</t>
+  </si>
+  <si>
+    <t>1**2 * Matern(length_scale=1, nu=0.5)</t>
+  </si>
+  <si>
+    <t>1**2 * Matern(length_scale=1, nu=1.5)</t>
+  </si>
+  <si>
+    <t>1**2 * ExpSineSquared(length_scale=1, periodicity=5)</t>
+  </si>
+  <si>
+    <t>1**2 * RationalQuadratic(alpha=1, length_scale=1)</t>
+  </si>
+  <si>
+    <t>DotProduct(sigma_0=1) + WhiteKernel(noise_level=1)</t>
+  </si>
+  <si>
+    <t>RationalQuadratic(alpha=1, length_scale=1)</t>
+  </si>
+  <si>
+    <t>RBF(length_scale=1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -246,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -274,7 +322,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,6 +405,2921 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gaussianHP!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>gaussianHP!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1**2 * RBF(length_scale=1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1**2 * Matern(length_scale=1, nu=0.5)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1**2 * Matern(length_scale=1, nu=1.5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1**2 * ExpSineSquared(length_scale=1, periodicity=5)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1**2 * RationalQuadratic(alpha=1, length_scale=1)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DotProduct(sigma_0=1) + WhiteKernel(noise_level=1)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RationalQuadratic(alpha=1, length_scale=1)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RBF(length_scale=1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gaussianHP!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.101919198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2327490000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3687268000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10032495700000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2450186E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8402311999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1802423000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4149909E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D10-4918-A257-1FB979D5E05A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gaussianHP!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>gaussianHP!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1**2 * RBF(length_scale=1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1**2 * Matern(length_scale=1, nu=0.5)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1**2 * Matern(length_scale=1, nu=1.5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1**2 * ExpSineSquared(length_scale=1, periodicity=5)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1**2 * RationalQuadratic(alpha=1, length_scale=1)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DotProduct(sigma_0=1) + WhiteKernel(noise_level=1)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RationalQuadratic(alpha=1, length_scale=1)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RBF(length_scale=1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gaussianHP!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6146639979999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4787232999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2920081000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75563188999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3644752000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1813687999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4357775999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.111287847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D10-4918-A257-1FB979D5E05A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gaussianHP!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>gaussianHP!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1**2 * RBF(length_scale=1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1**2 * Matern(length_scale=1, nu=0.5)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1**2 * Matern(length_scale=1, nu=1.5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1**2 * ExpSineSquared(length_scale=1, periodicity=5)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1**2 * RationalQuadratic(alpha=1, length_scale=1)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DotProduct(sigma_0=1) + WhiteKernel(noise_level=1)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RationalQuadratic(alpha=1, length_scale=1)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RBF(length_scale=1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gaussianHP!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.242904426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13716218599999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30121148399999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.207820458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27398740700000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62504093999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47979922000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.631794237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9D10-4918-A257-1FB979D5E05A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gaussianHP!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RRSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>gaussianHP!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1**2 * RBF(length_scale=1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1**2 * Matern(length_scale=1, nu=0.5)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1**2 * Matern(length_scale=1, nu=1.5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1**2 * ExpSineSquared(length_scale=1, periodicity=5)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1**2 * RationalQuadratic(alpha=1, length_scale=1)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DotProduct(sigma_0=1) + WhiteKernel(noise_level=1)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RationalQuadratic(alpha=1, length_scale=1)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RBF(length_scale=1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gaussianHP!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19.50997718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29950401399999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63943307400000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1302964180000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52735931899999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62606453699999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65680473900000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.344690516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9D10-4918-A257-1FB979D5E05A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1529896239"/>
+        <c:axId val="595624512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1529896239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Kernel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595624512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="595624512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1529896239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base Model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0690271895650621E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9788255491705762E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-146D-4C4B-BEE8-1DD0D24BF6D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hyperparameter Tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0281221479879522E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2327488754674795E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-146D-4C4B-BEE8-1DD0D24BF6D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polynomial Feature Expansion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$D$2:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0721950650240968E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5974263317521596E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-146D-4C4B-BEE8-1DD0D24BF6D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synthetic Data Generation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.8730206742585466E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7958215068018328E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-146D-4C4B-BEE8-1DD0D24BF6D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1559639328"/>
+        <c:axId val="593326271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1559639328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Machine Learning Model</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43595116052606236"/>
+              <c:y val="0.91747843397478435"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593326271"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593326271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Absolute Error (MAE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1559639328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8925082130359859E-2"/>
+          <c:y val="0"/>
+          <c:w val="0.9"/>
+          <c:h val="0.15638746218434707"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base Model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$H$2:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$I$2:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.5957338818375303E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65682437161645701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34CB-4F28-A720-4F9837271834}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hyperparameter Tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$H$2:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$J$2:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.4272355551076002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4787232897680599E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34CB-4F28-A720-4F9837271834}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polynomial Feature Expansion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$H$2:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$K$2:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.6981531097953997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7844535479857602E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-34CB-4F28-A720-4F9837271834}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synthetic Data Generation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$H$2:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$L$2:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.154147070353506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10134792964321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-34CB-4F28-A720-4F9837271834}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1559639328"/>
+        <c:axId val="593326271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1559639328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Machine Learning Model</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43595116052606236"/>
+              <c:y val="0.91747843397478435"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593326271"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593326271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Root Mean Squared</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Error </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(RMSE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1559639328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8925082130359859E-2"/>
+          <c:y val="0"/>
+          <c:w val="0.9"/>
+          <c:h val="0.15638746218434707"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base Model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$P$2:$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$Q$2:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.116774392106961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7558755853574599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76B2-4474-875B-FDF384548F65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hyperparameter Tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$P$2:$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$R$2:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.11230616023138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.137162186497926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76B2-4474-875B-FDF384548F65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polynomial Feature Expansion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$P$2:$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$S$2:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.113384046476036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15258247790966301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-76B2-4474-875B-FDF384548F65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synthetic Data Generation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$P$2:$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$T$2:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0421685755838901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0955059578572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-76B2-4474-875B-FDF384548F65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1559639328"/>
+        <c:axId val="593326271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1559639328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Machine Learning Model</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43595116052606236"/>
+              <c:y val="0.91747843397478435"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593326271"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593326271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Root  Absolute</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Error </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(RAE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1559639328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8925082130359859E-2"/>
+          <c:y val="0"/>
+          <c:w val="0.9"/>
+          <c:h val="0.15638746218434707"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base Model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$X$2:$X$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$Y$2:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.27179879341664198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9364056634108202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E02D-41CA-9CE1-F02A0AEC11AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hyperparameter Tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$X$2:$X$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$Z$2:$Z$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.259062132861965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29950401363046197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E02D-41CA-9CE1-F02A0AEC11AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polynomial Feature Expansion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$X$2:$X$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$AA$2:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.27530336980641901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34908278324533898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E02D-41CA-9CE1-F02A0AEC11AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bestModels!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synthetic Data Generation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bestModels!$X$2:$X$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Extra Trees (Melt-Pool Width)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gaussian Process (Melt-Pool Depth)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bestModels!$AB$2:$AB$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0743745571732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1547955236832701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E02D-41CA-9CE1-F02A0AEC11AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1559639328"/>
+        <c:axId val="593326271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1559639328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Machine Learning Model</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43595116052606236"/>
+              <c:y val="0.91747843397478435"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593326271"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593326271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Root  Relative Squared</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Error </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(RRSE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1559639328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8925082130359859E-2"/>
+          <c:y val="0"/>
+          <c:w val="0.9"/>
+          <c:h val="0.15638746218434707"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1352,7 +4336,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2469,8 +5453,208 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2674,6 +5858,2521 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -2974,7 +8673,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3483,16 +9182,212 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F2A07F-FCC6-FDFB-3658-2B3C8FC3494C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:colOff>125286</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156534</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE65211-3468-3FFB-8448-EA68E044D763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1098177</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190313</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E591024-5F6C-4A79-AB5F-C9DCEB1D0290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50FF8F3-6FF2-449C-BB09-9BE8EA917A6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156696</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B31294-2775-4A0A-848E-2E95FB45A14B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>58340</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:colOff>305990</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>186135</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3520,7 +9415,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3775,7 +9670,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D6BFC9BA-CDF8-49F0-8EB6-54B36411B375}" name="LPBF_ML_Model_Evaluation_Poly6_Depth" displayName="LPBF_ML_Model_Evaluation_Poly6_Depth" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{D6BFC9BA-CDF8-49F0-8EB6-54B36411B375}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3E2517BC-5B02-4542-8739-B4035C5AF8D8}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{3E2517BC-5B02-4542-8739-B4035C5AF8D8}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{283BA122-ED5D-439F-A006-2681D5231489}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{BCC4864A-1B67-4606-A6EA-20D1948EC17F}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{D60EA1E1-B83E-4810-9D1D-916663620026}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3790,7 +9685,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AFD4685F-0B89-4CE3-ADCA-546B2B6CB12A}" name="LPBF_ML_Model_Evaluation_Synthetic2831_Width" displayName="LPBF_ML_Model_Evaluation_Synthetic2831_Width" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{AFD4685F-0B89-4CE3-ADCA-546B2B6CB12A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DEC63AE2-4387-4879-9B07-198089A84968}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{DEC63AE2-4387-4879-9B07-198089A84968}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{199DAFCA-EBFD-4621-8ECC-29988F0BDAAC}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{2DF618DD-9EFB-41B8-AA43-443A34859B20}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{21B0A4B2-6F16-4D6A-B06D-A9578525AA1A}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3805,7 +9700,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2C10D130-BD66-45BE-845B-473C49542CAE}" name="LPBF_ML_Model_Evaluation_Synthetic3831_Width" displayName="LPBF_ML_Model_Evaluation_Synthetic3831_Width" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{2C10D130-BD66-45BE-845B-473C49542CAE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B6243019-BA2E-40FD-BDD6-84183F4734FA}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B6243019-BA2E-40FD-BDD6-84183F4734FA}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{BFE9FBC9-A2C4-45CE-A043-F4D737018DEB}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{E6E3F1EE-D9FF-4D4B-9A79-C7D120D81305}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{0D0C55B6-3481-4562-8A74-7CEDEB94CBA9}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3820,7 +9715,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6000F14-463C-432E-8265-619DD7AA04D6}" name="LPBF_ML_Model_Evaluation_HpTuning_Width" displayName="LPBF_ML_Model_Evaluation_HpTuning_Width" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{B6000F14-463C-432E-8265-619DD7AA04D6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{794D0FB4-1E88-4E83-9C34-CA8DBB7B303F}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{794D0FB4-1E88-4E83-9C34-CA8DBB7B303F}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B1433AB4-EA6D-4890-BD97-EFD1ADEDA6D4}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{6074469C-E9F4-4440-92AC-73DDAB28F4C7}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{F218E708-1E00-4297-99D6-DC1786FAC3EE}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3835,7 +9730,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8203EE30-E416-4EEF-B2EB-8FC31AF0455A}" name="LPBF_ML_Model_Evaluation_BaseModel_Depth" displayName="LPBF_ML_Model_Evaluation_BaseModel_Depth" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{8203EE30-E416-4EEF-B2EB-8FC31AF0455A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9DC3D611-9C62-42AC-BCDB-0B823B63EF4C}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{9DC3D611-9C62-42AC-BCDB-0B823B63EF4C}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{5FFAAB26-9E54-4F63-BB38-FACE850706BF}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{CBECC403-3658-4659-8297-6349DE366772}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{343F2A38-16BF-45B0-B7D8-B4AE881E51C7}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3850,7 +9745,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7076C38B-1CE8-4852-974D-4CC2E693616B}" name="LPBF_ML_Model_Evaluation_HpTuning_Depth" displayName="LPBF_ML_Model_Evaluation_HpTuning_Depth" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{7076C38B-1CE8-4852-974D-4CC2E693616B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B181107D-886E-47A7-9CE4-A66D168FFAD3}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{B181107D-886E-47A7-9CE4-A66D168FFAD3}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0C9B63AC-098B-45C8-8B65-C34271967DB0}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{D8BAB7EC-2432-4786-853D-9890B3FA6B62}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{ABF9E17D-3EAA-463F-9892-1CF9C538D844}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3865,7 +9760,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{EE87A277-493B-437B-BD5F-5993ABD71569}" name="LPBF_ML_Model_Evaluation_Poly12_Depth" displayName="LPBF_ML_Model_Evaluation_Poly12_Depth" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{EE87A277-493B-437B-BD5F-5993ABD71569}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B6D92BDA-BAC4-452A-801B-B9455FA2BCD3}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B6D92BDA-BAC4-452A-801B-B9455FA2BCD3}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{6F69D86F-10F3-4DCA-8AC1-F5E85BDE4760}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{429A990F-2C0C-4189-8350-D5E9636610A0}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{DB343281-32E2-4075-B7C6-3437A88CE147}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3880,7 +9775,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9E153C18-61E6-45BC-81D9-12CEB8F90B4C}" name="LPBF_ML_Model_Evaluation_Synthetic1831_Depth" displayName="LPBF_ML_Model_Evaluation_Synthetic1831_Depth" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{9E153C18-61E6-45BC-81D9-12CEB8F90B4C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{750F4AAE-81F5-4873-9B49-A8B65F6A4E78}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{750F4AAE-81F5-4873-9B49-A8B65F6A4E78}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{1EE28E33-BEB5-4A66-83E3-610C59F2842F}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{7E96C0AB-07D5-4A36-99EC-28514701627E}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{506577A3-6FFF-4137-A3BD-48257783BF73}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3895,7 +9790,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3C4A772E-19FB-4689-80AB-90D80D35D99D}" name="LPBF_ML_Model_Evaluation_Synthetic2831_Depth" displayName="LPBF_ML_Model_Evaluation_Synthetic2831_Depth" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{3C4A772E-19FB-4689-80AB-90D80D35D99D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{789E441F-7C49-4A33-9CB2-08E81B9F8B19}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{789E441F-7C49-4A33-9CB2-08E81B9F8B19}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{CD9C14AD-9583-49A6-B353-4A238593FE5A}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{90DF8761-2068-4C2A-833E-D7C5D7B8D937}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{DC4FAA54-7B93-4CBA-9AB4-8D6BE90907B2}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3910,7 +9805,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4C46AD39-62EB-4481-963F-18A535092A03}" name="LPBF_ML_Model_Evaluation_Synthetic3831_Depth" displayName="LPBF_ML_Model_Evaluation_Synthetic3831_Depth" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{4C46AD39-62EB-4481-963F-18A535092A03}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BADF90A7-8B07-408B-9AE2-6F8A3973965B}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BADF90A7-8B07-408B-9AE2-6F8A3973965B}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{57D386CA-A4D4-4C48-BA5C-35386623CE59}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{488BB79A-D50B-41F6-8354-CE463D484F7B}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{C06AF045-F0F0-4088-9DEB-F9FA0E6B3604}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3925,7 +9820,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{243498CD-65C2-4A0F-B66D-B97433CFF156}" name="LPBF_ML_Model_Evaluation_BaseModel_Width" displayName="LPBF_ML_Model_Evaluation_BaseModel_Width" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{243498CD-65C2-4A0F-B66D-B97433CFF156}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0D7FE5D9-67EE-41C0-A354-4E41AC894849}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{0D7FE5D9-67EE-41C0-A354-4E41AC894849}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{B4A18D95-7097-461F-AB22-8284CBE71020}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{5DA58E33-1147-4105-AF62-7F09EF939051}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{734E4C5D-7594-45DD-9FC7-38DF105FEC83}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3940,7 +9835,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5B181C5B-1F04-42AD-B794-C7E82A9DB5BD}" name="LPBF_ML_Model_Evaluation_Poly12_Width" displayName="LPBF_ML_Model_Evaluation_Poly12_Width" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{5B181C5B-1F04-42AD-B794-C7E82A9DB5BD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0EAD064F-EC45-4B03-9DDA-B86D60B1B966}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{0EAD064F-EC45-4B03-9DDA-B86D60B1B966}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{E0369911-6A1B-4E8E-B474-0C2A0058B2E0}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{EFB65C8D-AC44-4ECF-97D0-E376F945C1F2}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{572B18C6-C806-4B65-930D-C73AE066A2D5}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3955,7 +9850,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{39F05C0E-1510-4CB7-97A7-626743BF3E83}" name="LPBF_ML_Model_Evaluation_Poly6_Width" displayName="LPBF_ML_Model_Evaluation_Poly6_Width" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{39F05C0E-1510-4CB7-97A7-626743BF3E83}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{45BDA033-85BD-48CA-ADF3-A0BCCCDA75B6}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{45BDA033-85BD-48CA-ADF3-A0BCCCDA75B6}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{0AC8F438-321E-4580-B56D-D7C5CA54BBE9}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{73B6DE5F-91A2-42E2-BB51-FA262A5509AB}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{39F89F52-2574-4882-988A-479059CC5422}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -3970,7 +9865,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{90162891-C5DB-4AB0-B263-C0FA81081C48}" name="LPBF_ML_Model_Evaluation_Synthetic1831_Width" displayName="LPBF_ML_Model_Evaluation_Synthetic1831_Width" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{90162891-C5DB-4AB0-B263-C0FA81081C48}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E85578A-D34F-4713-9D52-1229E588F54D}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{6E85578A-D34F-4713-9D52-1229E588F54D}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{232E2EEB-2665-4940-835F-8C523F1D62AC}" uniqueName="2" name="Correlation Coefficient" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{074E6BDF-D9B6-450B-925F-60B777E3D757}" uniqueName="3" name="MAE" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{DB006003-61E0-4D49-B45F-1ED4E7ADC962}" uniqueName="4" name="RMSE" queryTableFieldId="4"/>
@@ -4243,418 +10138,695 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7A6F03-7FD9-49C0-B119-F1A35866EF93}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ABCEDC-365A-4F11-931A-D123A9FC6B79}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.101919198</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.6146639979999999</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2.242904426</v>
+      </c>
+      <c r="E2" s="7">
+        <v>19.50997718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7">
+        <v>6.2327490000000001E-3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.4787232999999999E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.13716218599999999</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.29950401399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1.3687268000000001E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5.2920081000000001E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.30121148399999997</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.63943307400000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.10032495700000001</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.75563188999999997</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.207820458</v>
+      </c>
+      <c r="E5" s="7">
+        <v>9.1302964180000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1.2450186E-2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4.3644752000000002E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.27398740700000002</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.52735931899999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2.8402311999999999E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5.1813687999999997E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.62504093999999999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.62606453699999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2.1802423000000001E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5.4357775999999997E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.47979922000000003</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.65680473900000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="7">
+        <v>7.4149909E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.111287847</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.631794237</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.344690516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6838CA-2977-476C-80EA-5DE7D66347DF}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="86.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <f>LPBF_ML_Model_Evaluation_BaseMo!C2</f>
+      <c r="B2">
+        <v>-7.4974307976338297</v>
+      </c>
+      <c r="C2">
         <v>5.4252340691516444E-2</v>
       </c>
-      <c r="C2" s="8">
-        <f>LPBF_ML_Model_Evaluation_HpTuni!C2</f>
-        <v>1.1734823583081051E-2</v>
-      </c>
-      <c r="D2" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly6_!C2</f>
-        <v>1.0238840041730573E-2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly12!C2</f>
-        <v>2.1291798817765266E-2</v>
-      </c>
-      <c r="F2" s="8">
-        <f>LPBF_ML_Model_Evaluation_Synthe!C2</f>
-        <v>8.9581623580965955E-2</v>
-      </c>
-      <c r="G2" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C2</f>
-        <v>0.13102910362478298</v>
-      </c>
-      <c r="H2" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C2</f>
-        <v>0.1272669928930604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D2">
+        <v>0.37313462626159849</v>
+      </c>
+      <c r="E2">
+        <v>0.59262141940553803</v>
+      </c>
+      <c r="F2">
+        <v>2.8204963029145249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <f>LPBF_ML_Model_Evaluation_BaseMo!C3</f>
+      <c r="B3">
+        <v>0.74483071035783399</v>
+      </c>
+      <c r="C3">
         <v>3.3900734191775271E-2</v>
       </c>
-      <c r="C3" s="8">
-        <f>LPBF_ML_Model_Evaluation_HpTuni!C3</f>
-        <v>3.3900734191775271E-2</v>
-      </c>
-      <c r="D3" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly6_!C3</f>
-        <v>3.1301132821303826E-2</v>
-      </c>
-      <c r="E3" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly12!C3</f>
-        <v>3.0004159884475579E-2</v>
-      </c>
-      <c r="F3" s="8">
-        <f>LPBF_ML_Model_Evaluation_Synthe!C3</f>
-        <v>8.7053612277640122E-2</v>
-      </c>
-      <c r="G3" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C3</f>
-        <v>9.1594193375100705E-2</v>
-      </c>
-      <c r="H3" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C3</f>
-        <v>9.6079573794565359E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="D3">
+        <v>6.6369369253839905E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.37031215537510037</v>
+      </c>
+      <c r="F3">
+        <v>0.5016810218947233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <f>LPBF_ML_Model_Evaluation_BaseMo!C4</f>
+      <c r="B4">
+        <v>0.74483071035783355</v>
+      </c>
+      <c r="C4">
         <v>3.3900734191775465E-2</v>
       </c>
-      <c r="C4" s="8">
-        <f>LPBF_ML_Model_Evaluation_HpTuni!C4</f>
-        <v>2.1054429999403827E-2</v>
-      </c>
-      <c r="D4" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly6_!C4</f>
-        <v>70048806.422183558</v>
-      </c>
-      <c r="E4" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly12!C4</f>
-        <v>23565585.945139654</v>
-      </c>
-      <c r="F4" s="8">
-        <f>LPBF_ML_Model_Evaluation_Synthe!C4</f>
-        <v>8.3608430526742356E-2</v>
-      </c>
-      <c r="G4" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C4</f>
-        <v>9.0209328829883875E-2</v>
-      </c>
-      <c r="H4" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C4</f>
-        <v>9.5512036000727191E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="D4">
+        <v>6.6369369253839933E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.37031215537510248</v>
+      </c>
+      <c r="F4">
+        <v>0.50168102189472352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <f>LPBF_ML_Model_Evaluation_BaseMo!C5</f>
+      <c r="B5">
+        <v>0.76408277843159844</v>
+      </c>
+      <c r="C5">
         <v>4.3183938459508131E-2</v>
       </c>
-      <c r="C5" s="8">
-        <f>LPBF_ML_Model_Evaluation_HpTuni!C5</f>
-        <v>3.7639783047568112E-2</v>
-      </c>
-      <c r="D5" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly6_!C5</f>
-        <v>4.2019239641721842E-2</v>
-      </c>
-      <c r="E5" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly12!C5</f>
-        <v>5.4345743541524917E-2</v>
-      </c>
-      <c r="F5" s="8">
-        <f>LPBF_ML_Model_Evaluation_Synthe!C5</f>
-        <v>8.557669204769025E-2</v>
-      </c>
-      <c r="G5" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C5</f>
-        <v>9.2507628973847345E-2</v>
-      </c>
-      <c r="H5" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C5</f>
-        <v>9.7373171604241082E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="D5">
+        <v>6.3470733484260466E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.47171654861698803</v>
+      </c>
+      <c r="F5">
+        <v>0.47977045424383252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <f>LPBF_ML_Model_Evaluation_BaseMo!C6</f>
+      <c r="B6">
+        <v>0.802664745061892</v>
+      </c>
+      <c r="C6">
         <v>1.6299372640481924E-2</v>
       </c>
-      <c r="C6" s="8">
-        <f>LPBF_ML_Model_Evaluation_HpTuni!C6</f>
-        <v>1.5849744972891568E-2</v>
-      </c>
-      <c r="D6" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly6_!C6</f>
-        <v>1.386867904036145E-2</v>
-      </c>
-      <c r="E6" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly12!C6</f>
-        <v>1.407360063855422E-2</v>
-      </c>
-      <c r="F6" s="8">
-        <f>LPBF_ML_Model_Evaluation_Synthe!C6</f>
-        <v>8.5595606618032782E-2</v>
-      </c>
-      <c r="G6" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C6</f>
-        <v>0.10524923007120142</v>
-      </c>
-      <c r="H6" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C6</f>
-        <v>0.12025644636657962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D6">
+        <v>5.7982592929377873E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.17804498804109009</v>
+      </c>
+      <c r="F6">
+        <v>0.43828601657583288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <f>LPBF_ML_Model_Evaluation_BaseMo!C7</f>
+      <c r="B7">
+        <v>0.66876704095235928</v>
+      </c>
+      <c r="C7">
         <v>4.0437252614553283E-2</v>
       </c>
-      <c r="C7" s="8">
-        <f>LPBF_ML_Model_Evaluation_HpTuni!C7</f>
-        <v>1.6781925087261389E-2</v>
-      </c>
-      <c r="D7" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly6_!C7</f>
-        <v>1.5431152454912786E-2</v>
-      </c>
-      <c r="E7" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly12!C7</f>
-        <v>1.5562675044303842E-2</v>
-      </c>
-      <c r="F7" s="8">
-        <f>LPBF_ML_Model_Evaluation_Synthe!C7</f>
-        <v>8.0371247610457483E-2</v>
-      </c>
-      <c r="G7" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C7</f>
-        <v>8.8565861371626572E-2</v>
-      </c>
-      <c r="H7" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C7</f>
-        <v>9.6711027062405766E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D7">
+        <v>7.545519660227934E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.44171332952357156</v>
+      </c>
+      <c r="F7">
+        <v>0.57036010081576338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <f>LPBF_ML_Model_Evaluation_BaseMo!C8</f>
+      <c r="B8">
+        <v>0.91651523874633833</v>
+      </c>
+      <c r="C8">
         <v>1.1452531706301741E-2</v>
       </c>
-      <c r="C8" s="8">
-        <f>LPBF_ML_Model_Evaluation_HpTuni!C8</f>
-        <v>1.1260138552945807E-2</v>
-      </c>
-      <c r="D8" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly6_!C8</f>
-        <v>1.1621258515920708E-2</v>
-      </c>
-      <c r="E8" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly12!C8</f>
-        <v>1.2339430173212318E-2</v>
-      </c>
-      <c r="F8" s="8">
-        <f>LPBF_ML_Model_Evaluation_Synthe!C8</f>
-        <v>7.5584187719031304E-2</v>
-      </c>
-      <c r="G8" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C8</f>
-        <v>9.2487841230659673E-2</v>
-      </c>
-      <c r="H8" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C8</f>
-        <v>0.10366851405329447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="D8">
+        <v>3.8101734595362105E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.1251008806083968</v>
+      </c>
+      <c r="F8">
+        <v>0.28800811824284239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <f>LPBF_ML_Model_Evaluation_BaseMo!C9</f>
+      <c r="B9">
+        <v>0.92367614145553945</v>
+      </c>
+      <c r="C9">
         <v>1.5657220813430718E-2</v>
       </c>
-      <c r="C9" s="8">
-        <f>LPBF_ML_Model_Evaluation_HpTuni!C9</f>
-        <v>1.2257755873221457E-2</v>
-      </c>
-      <c r="D9" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly6_!C9</f>
-        <v>1.1015080682592751E-2</v>
-      </c>
-      <c r="E9" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly12!C9</f>
-        <v>1.2498637262247248E-2</v>
-      </c>
-      <c r="F9" s="8">
-        <f>LPBF_ML_Model_Evaluation_Synthe!C9</f>
-        <v>7.811032980325755E-2</v>
-      </c>
-      <c r="G9" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C9</f>
-        <v>9.4747097203653041E-2</v>
-      </c>
-      <c r="H9" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C9</f>
-        <v>0.10192522041513041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="D9">
+        <v>3.6215966590860085E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.17103049018956323</v>
+      </c>
+      <c r="F9">
+        <v>0.27375374110786294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <f>LPBF_ML_Model_Evaluation_BaseMo!C10</f>
+      <c r="B10">
+        <v>0.75028643886466961</v>
+      </c>
+      <c r="C10">
         <v>4.4499623545828634E-2</v>
       </c>
-      <c r="C10" s="8">
-        <f>LPBF_ML_Model_Evaluation_HpTuni!C10</f>
-        <v>2.1238944055851493E-2</v>
-      </c>
-      <c r="D10" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly6_!C10</f>
-        <v>2.2187352384785853E-2</v>
-      </c>
-      <c r="E10" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly12!C10</f>
-        <v>2.2106324901772376E-2</v>
-      </c>
-      <c r="F10" s="8">
-        <f>LPBF_ML_Model_Evaluation_Synthe!C10</f>
-        <v>7.6446425717859659E-2</v>
-      </c>
-      <c r="G10" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C10</f>
-        <v>8.5865437340925138E-2</v>
-      </c>
-      <c r="H10" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C10</f>
-        <v>9.4227965188009341E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="D10">
+        <v>6.5103605704047524E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.48608833706717519</v>
+      </c>
+      <c r="F10">
+        <v>0.4921132113478392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <f>LPBF_ML_Model_Evaluation_BaseMo!C11</f>
+      <c r="B11">
+        <v>0.90579563253328921</v>
+      </c>
+      <c r="C11">
         <v>1.2098864623624497E-2</v>
       </c>
-      <c r="C11" s="8">
-        <f>LPBF_ML_Model_Evaluation_HpTuni!C11</f>
-        <v>1.1131986506676274E-2</v>
-      </c>
-      <c r="D11" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly6_!C11</f>
-        <v>1.1580705598349587E-2</v>
-      </c>
-      <c r="E11" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly12!C11</f>
-        <v>1.2386741985957231E-2</v>
-      </c>
-      <c r="F11" s="8">
-        <f>LPBF_ML_Model_Evaluation_Synthe!C11</f>
-        <v>7.5014889218192757E-2</v>
-      </c>
-      <c r="G11" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C11</f>
-        <v>9.2229557160768597E-2</v>
-      </c>
-      <c r="H11" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C11</f>
-        <v>0.10299856624986532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="D11">
+        <v>4.0372701293954968E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.1321610502893748</v>
+      </c>
+      <c r="F11">
+        <v>0.30517418305327509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
-        <f>LPBF_ML_Model_Evaluation_BaseMo!C12</f>
+      <c r="B12">
+        <v>0.92409189903402833</v>
+      </c>
+      <c r="C12">
         <v>1.0690271895650621E-2</v>
       </c>
-      <c r="C12" s="8">
-        <f>LPBF_ML_Model_Evaluation_HpTuni!C12</f>
-        <v>1.0281221479879522E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly6_!C12</f>
-        <v>1.0032434617108435E-2</v>
-      </c>
-      <c r="E12" s="8">
-        <f>LPBF_ML_Model_Evaluation_Poly12!C12</f>
-        <v>1.0721950650240968E-2</v>
-      </c>
-      <c r="F12" s="8">
-        <f>LPBF_ML_Model_Evaluation_Synthe!C12</f>
-        <v>7.9277637725731209E-2</v>
-      </c>
-      <c r="G12" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C12</f>
-        <v>9.8730206742585466E-2</v>
-      </c>
-      <c r="H12" s="8">
-        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C12</f>
-        <v>0.11398913052348059</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
+      <c r="D12">
+        <v>3.5957338818375303E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.11677439210696149</v>
+      </c>
+      <c r="F12">
+        <v>0.27179879341664293</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBB706E-936B-426E-9584-982B52F25F87}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.59565299337453037</v>
+      </c>
+      <c r="C2">
+        <v>2.1291798817765266E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.22515961744868382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.81260605441221867</v>
+      </c>
+      <c r="C3">
+        <v>3.0004159884475579E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.7636570636683197E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.31729236309620223</v>
+      </c>
+      <c r="F3">
+        <v>0.42906666244660907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-2.433711971567617E+18</v>
+      </c>
+      <c r="C4">
+        <v>23565585.945139654</v>
+      </c>
+      <c r="D4">
+        <v>212049262.85378274</v>
+      </c>
+      <c r="E4">
+        <v>249204792.97101638</v>
+      </c>
+      <c r="F4">
+        <v>1578568406.861968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.70911437825682955</v>
+      </c>
+      <c r="C5">
+        <v>5.4345743541524917E-2</v>
+      </c>
+      <c r="D5">
+        <v>6.9600302437171677E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.57470328977391394</v>
+      </c>
+      <c r="F5">
+        <v>0.51812883976454394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.86006487145915123</v>
+      </c>
+      <c r="C6">
+        <v>1.407360063855422E-2</v>
+      </c>
+      <c r="D6">
+        <v>5.4025982957883183E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.14882756328030206</v>
+      </c>
+      <c r="F6">
+        <v>0.40218819296619934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.92930547889534298</v>
+      </c>
+      <c r="C7">
+        <v>1.5562675044303842E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.5594096470482658E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.16457444434097895</v>
+      </c>
+      <c r="F7">
+        <v>0.26497482425979901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.88474637707188875</v>
+      </c>
+      <c r="C8">
+        <v>1.2339430173212318E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.8255792396745982E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.13048880468554228</v>
+      </c>
+      <c r="F8">
+        <v>0.35923288909577217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.89683653101396565</v>
+      </c>
+      <c r="C9">
+        <v>1.2498637262247248E-2</v>
+      </c>
+      <c r="D9">
+        <v>4.5303644276695185E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.13217241101533317</v>
+      </c>
+      <c r="F9">
+        <v>0.33725607252035905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.83831539277746026</v>
+      </c>
+      <c r="C10">
+        <v>2.2106324901772376E-2</v>
+      </c>
+      <c r="D10">
+        <v>5.5733362621826488E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.2337731866002011</v>
+      </c>
+      <c r="F10">
+        <v>0.41489852055586879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.88292274929310344</v>
+      </c>
+      <c r="C11">
+        <v>1.2386741985957231E-2</v>
+      </c>
+      <c r="D11">
+        <v>4.8680707675737074E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.13098912453872255</v>
+      </c>
+      <c r="F11">
+        <v>0.36239610610478762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.93239625605237408</v>
+      </c>
+      <c r="C12">
+        <v>1.0721950650240968E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.6981531097954032E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.11338404647603684</v>
+      </c>
+      <c r="F12">
+        <v>0.27530336980641962</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05409789-B99E-43C1-8642-7DBC46B62A2B}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -4690,7 +10862,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -4704,7 +10876,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -4724,7 +10896,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -4744,7 +10916,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -4764,7 +10936,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -4784,7 +10956,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -4804,7 +10976,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -4824,7 +10996,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -4844,7 +11016,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -4864,7 +11036,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -4884,7 +11056,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -4911,7 +11083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FB2A7F-9016-49D5-AABC-2297DC988B33}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -4947,7 +11119,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -4961,7 +11133,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -4981,7 +11153,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -5001,7 +11173,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -5021,7 +11193,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -5041,7 +11213,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -5061,7 +11233,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -5081,7 +11253,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -5101,7 +11273,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -5121,7 +11293,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -5141,7 +11313,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -5168,7 +11340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F944C9-219E-47CA-A2EC-E76F66724A2D}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -5204,7 +11376,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
@@ -5215,7 +11387,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -5235,7 +11407,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -5255,7 +11427,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -5275,7 +11447,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -5295,7 +11467,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -5315,7 +11487,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -5335,7 +11507,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -5355,7 +11527,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -5375,7 +11547,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -5395,7 +11567,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -5422,7 +11594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46D0B20-A684-4D74-81B9-A0C4CE456405}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -5458,7 +11630,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -5472,7 +11644,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -5492,7 +11664,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -5512,7 +11684,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -5532,7 +11704,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -5552,7 +11724,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -5572,7 +11744,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -5592,7 +11764,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -5612,7 +11784,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -5632,7 +11804,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -5652,7 +11824,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -5679,7 +11851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B190E6-F256-44A0-BFE7-420C23AA2E86}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -5942,7 +12114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832D36A9-CDCB-4C70-9DA3-B9407F2A9EB1}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -6205,7 +12377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50783A-0195-4D7F-89A3-F2AC228BA5C9}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -6469,11 +12641,664 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038D39FB-E312-41BA-8A67-C13B30972E1F}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="86.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1.0690271895650621E-2</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1.0281221479879522E-2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1.0721950650240968E-2</v>
+      </c>
+      <c r="E2" s="17">
+        <v>9.8730206742585466E-2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2">
+        <v>3.5957338818375303E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.4272355551076002E-2</v>
+      </c>
+      <c r="K2">
+        <v>3.6981531097953997E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.154147070353506</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2">
+        <v>0.116774392106961</v>
+      </c>
+      <c r="R2">
+        <v>0.11230616023138</v>
+      </c>
+      <c r="S2">
+        <v>0.113384046476036</v>
+      </c>
+      <c r="T2">
+        <v>1.0421685755838901</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2">
+        <v>0.27179879341664198</v>
+      </c>
+      <c r="Z2">
+        <v>0.259062132861965</v>
+      </c>
+      <c r="AA2">
+        <v>0.27530336980641901</v>
+      </c>
+      <c r="AB2">
+        <v>1.0743745571732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="13">
+        <v>7.9788255491705762E-2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>6.2327488754674795E-3</v>
+      </c>
+      <c r="D3" s="14">
+        <v>6.5974263317521596E-3</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5.7958215068018328E-2</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3">
+        <v>0.65682437161645701</v>
+      </c>
+      <c r="J3">
+        <v>2.4787232897680599E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.7844535479857602E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.10134792964321</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3">
+        <v>1.7558755853574599</v>
+      </c>
+      <c r="R3">
+        <v>0.137162186497926</v>
+      </c>
+      <c r="S3">
+        <v>0.15258247790966301</v>
+      </c>
+      <c r="T3">
+        <v>1.0955059578572</v>
+      </c>
+      <c r="X3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3">
+        <v>7.9364056634108202</v>
+      </c>
+      <c r="Z3">
+        <v>0.29950401363046197</v>
+      </c>
+      <c r="AA3">
+        <v>0.34908278324533898</v>
+      </c>
+      <c r="AB3">
+        <v>1.1547955236832701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7A6F03-7FD9-49C0-B119-F1A35866EF93}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A218" zoomScale="96" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="86.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <f>LPBF_ML_Model_Evaluation_BaseMo!C2</f>
+        <v>5.4252340691516444E-2</v>
+      </c>
+      <c r="C2" s="8">
+        <f>LPBF_ML_Model_Evaluation_HpTuni!C2</f>
+        <v>1.1734823583081051E-2</v>
+      </c>
+      <c r="D2" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly6_!C2</f>
+        <v>1.0238840041730573E-2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly12!C2</f>
+        <v>2.1291798817765266E-2</v>
+      </c>
+      <c r="F2" s="8">
+        <f>LPBF_ML_Model_Evaluation_Synthe!C2</f>
+        <v>8.9581623580965955E-2</v>
+      </c>
+      <c r="G2" s="11">
+        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C2</f>
+        <v>0.13102910362478298</v>
+      </c>
+      <c r="H2" s="8">
+        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C2</f>
+        <v>0.1272669928930604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <f>LPBF_ML_Model_Evaluation_BaseMo!C3</f>
+        <v>3.3900734191775271E-2</v>
+      </c>
+      <c r="C3" s="8">
+        <f>LPBF_ML_Model_Evaluation_HpTuni!C3</f>
+        <v>3.3900734191775271E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly6_!C3</f>
+        <v>3.1301132821303826E-2</v>
+      </c>
+      <c r="E3" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly12!C3</f>
+        <v>3.0004159884475579E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <f>LPBF_ML_Model_Evaluation_Synthe!C3</f>
+        <v>8.7053612277640122E-2</v>
+      </c>
+      <c r="G3" s="11">
+        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C3</f>
+        <v>9.1594193375100705E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C3</f>
+        <v>9.6079573794565359E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <f>LPBF_ML_Model_Evaluation_BaseMo!C4</f>
+        <v>3.3900734191775465E-2</v>
+      </c>
+      <c r="C4" s="8">
+        <f>LPBF_ML_Model_Evaluation_HpTuni!C4</f>
+        <v>2.1054429999403827E-2</v>
+      </c>
+      <c r="D4" s="11">
+        <f>LPBF_ML_Model_Evaluation_Poly6_!C4</f>
+        <v>70048806.422183558</v>
+      </c>
+      <c r="E4" s="11">
+        <f>LPBF_ML_Model_Evaluation_Poly12!C4</f>
+        <v>23565585.945139654</v>
+      </c>
+      <c r="F4" s="8">
+        <f>LPBF_ML_Model_Evaluation_Synthe!C4</f>
+        <v>8.3608430526742356E-2</v>
+      </c>
+      <c r="G4" s="11">
+        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C4</f>
+        <v>9.0209328829883875E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C4</f>
+        <v>9.5512036000727191E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <f>LPBF_ML_Model_Evaluation_BaseMo!C5</f>
+        <v>4.3183938459508131E-2</v>
+      </c>
+      <c r="C5" s="8">
+        <f>LPBF_ML_Model_Evaluation_HpTuni!C5</f>
+        <v>3.7639783047568112E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly6_!C5</f>
+        <v>4.2019239641721842E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly12!C5</f>
+        <v>5.4345743541524917E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <f>LPBF_ML_Model_Evaluation_Synthe!C5</f>
+        <v>8.557669204769025E-2</v>
+      </c>
+      <c r="G5" s="11">
+        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C5</f>
+        <v>9.2507628973847345E-2</v>
+      </c>
+      <c r="H5" s="8">
+        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C5</f>
+        <v>9.7373171604241082E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <f>LPBF_ML_Model_Evaluation_BaseMo!C6</f>
+        <v>1.6299372640481924E-2</v>
+      </c>
+      <c r="C6" s="8">
+        <f>LPBF_ML_Model_Evaluation_HpTuni!C6</f>
+        <v>1.5849744972891568E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly6_!C6</f>
+        <v>1.386867904036145E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly12!C6</f>
+        <v>1.407360063855422E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <f>LPBF_ML_Model_Evaluation_Synthe!C6</f>
+        <v>8.5595606618032782E-2</v>
+      </c>
+      <c r="G6" s="11">
+        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C6</f>
+        <v>0.10524923007120142</v>
+      </c>
+      <c r="H6" s="8">
+        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C6</f>
+        <v>0.12025644636657962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <f>LPBF_ML_Model_Evaluation_BaseMo!C7</f>
+        <v>4.0437252614553283E-2</v>
+      </c>
+      <c r="C7" s="8">
+        <f>LPBF_ML_Model_Evaluation_HpTuni!C7</f>
+        <v>1.6781925087261389E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly6_!C7</f>
+        <v>1.5431152454912786E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly12!C7</f>
+        <v>1.5562675044303842E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <f>LPBF_ML_Model_Evaluation_Synthe!C7</f>
+        <v>8.0371247610457483E-2</v>
+      </c>
+      <c r="G7" s="11">
+        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C7</f>
+        <v>8.8565861371626572E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C7</f>
+        <v>9.6711027062405766E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <f>LPBF_ML_Model_Evaluation_BaseMo!C8</f>
+        <v>1.1452531706301741E-2</v>
+      </c>
+      <c r="C8" s="8">
+        <f>LPBF_ML_Model_Evaluation_HpTuni!C8</f>
+        <v>1.1260138552945807E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly6_!C8</f>
+        <v>1.1621258515920708E-2</v>
+      </c>
+      <c r="E8" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly12!C8</f>
+        <v>1.2339430173212318E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <f>LPBF_ML_Model_Evaluation_Synthe!C8</f>
+        <v>7.5584187719031304E-2</v>
+      </c>
+      <c r="G8" s="11">
+        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C8</f>
+        <v>9.2487841230659673E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C8</f>
+        <v>0.10366851405329447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <f>LPBF_ML_Model_Evaluation_BaseMo!C9</f>
+        <v>1.5657220813430718E-2</v>
+      </c>
+      <c r="C9" s="8">
+        <f>LPBF_ML_Model_Evaluation_HpTuni!C9</f>
+        <v>1.2257755873221457E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly6_!C9</f>
+        <v>1.1015080682592751E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly12!C9</f>
+        <v>1.2498637262247248E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <f>LPBF_ML_Model_Evaluation_Synthe!C9</f>
+        <v>7.811032980325755E-2</v>
+      </c>
+      <c r="G9" s="11">
+        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C9</f>
+        <v>9.4747097203653041E-2</v>
+      </c>
+      <c r="H9" s="8">
+        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C9</f>
+        <v>0.10192522041513041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <f>LPBF_ML_Model_Evaluation_BaseMo!C10</f>
+        <v>4.4499623545828634E-2</v>
+      </c>
+      <c r="C10" s="8">
+        <f>LPBF_ML_Model_Evaluation_HpTuni!C10</f>
+        <v>2.1238944055851493E-2</v>
+      </c>
+      <c r="D10" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly6_!C10</f>
+        <v>2.2187352384785853E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly12!C10</f>
+        <v>2.2106324901772376E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <f>LPBF_ML_Model_Evaluation_Synthe!C10</f>
+        <v>7.6446425717859659E-2</v>
+      </c>
+      <c r="G10" s="11">
+        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C10</f>
+        <v>8.5865437340925138E-2</v>
+      </c>
+      <c r="H10" s="8">
+        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C10</f>
+        <v>9.4227965188009341E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <f>LPBF_ML_Model_Evaluation_BaseMo!C11</f>
+        <v>1.2098864623624497E-2</v>
+      </c>
+      <c r="C11" s="8">
+        <f>LPBF_ML_Model_Evaluation_HpTuni!C11</f>
+        <v>1.1131986506676274E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly6_!C11</f>
+        <v>1.1580705598349587E-2</v>
+      </c>
+      <c r="E11" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly12!C11</f>
+        <v>1.2386741985957231E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <f>LPBF_ML_Model_Evaluation_Synthe!C11</f>
+        <v>7.5014889218192757E-2</v>
+      </c>
+      <c r="G11" s="11">
+        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C11</f>
+        <v>9.2229557160768597E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C11</f>
+        <v>0.10299856624986532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <f>LPBF_ML_Model_Evaluation_BaseMo!C12</f>
+        <v>1.0690271895650621E-2</v>
+      </c>
+      <c r="C12" s="11">
+        <f>LPBF_ML_Model_Evaluation_HpTuni!C12</f>
+        <v>1.0281221479879522E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly6_!C12</f>
+        <v>1.0032434617108435E-2</v>
+      </c>
+      <c r="E12" s="8">
+        <f>LPBF_ML_Model_Evaluation_Poly12!C12</f>
+        <v>1.0721950650240968E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <f>LPBF_ML_Model_Evaluation_Synthe!C12</f>
+        <v>7.9277637725731209E-2</v>
+      </c>
+      <c r="G12" s="11">
+        <f>'LPBF_ML_Model_Evaluation_Sy (2)'!C12</f>
+        <v>9.8730206742585466E-2</v>
+      </c>
+      <c r="H12" s="8">
+        <f>'LPBF_ML_Model_Evaluation_Sy (3)'!C12</f>
+        <v>0.11398913052348059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2764BDDF-337B-41AD-94EE-291A81B97303}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6881,7 +13706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC449C1-B51A-4F7D-BDDA-DAB1A49C6A80}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -6917,7 +13742,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -6937,7 +13762,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -6957,7 +13782,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -6977,7 +13802,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -6997,7 +13822,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -7017,7 +13842,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -7037,7 +13862,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -7057,7 +13882,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -7077,7 +13902,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -7097,7 +13922,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -7117,7 +13942,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -7144,7 +13969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68139696-335C-4AB8-801E-51537B582423}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -7180,7 +14005,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -7200,7 +14025,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -7220,7 +14045,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -7240,7 +14065,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -7260,7 +14085,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -7280,7 +14105,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -7300,7 +14125,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -7320,7 +14145,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -7340,7 +14165,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -7360,7 +14185,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -7380,7 +14205,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -7407,7 +14232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21AA7CC-0BCA-470B-A37D-9F245C68413A}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -7443,7 +14268,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -7463,7 +14288,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -7483,7 +14308,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -7503,7 +14328,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -7523,7 +14348,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -7543,7 +14368,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -7563,7 +14388,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -7583,7 +14408,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -7603,7 +14428,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -7623,7 +14448,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -7643,7 +14468,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -7670,7 +14495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A7381C-4F12-43FE-8A48-5478DA6453B1}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -7706,7 +14531,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -7726,7 +14551,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -7746,7 +14571,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -7766,7 +14591,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -7786,7 +14611,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -7806,7 +14631,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -7826,7 +14651,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -7846,7 +14671,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -7866,7 +14691,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -7886,7 +14711,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -7906,7 +14731,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -7933,7 +14758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0455C80A-A32D-4577-A75E-422141BAB1C6}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -7969,7 +14794,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -7986,269 +14811,6 @@
       </c>
       <c r="F2">
         <v>1.2223658659377887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>9.9849992556819249E-3</v>
-      </c>
-      <c r="C3">
-        <v>5.6298375761996852E-2</v>
-      </c>
-      <c r="D3">
-        <v>9.3005068826934004E-2</v>
-      </c>
-      <c r="E3">
-        <v>0.99603959651422147</v>
-      </c>
-      <c r="F3">
-        <v>0.99365512045858062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1.0522173198404294E-2</v>
-      </c>
-      <c r="C4">
-        <v>5.6072633318157164E-2</v>
-      </c>
-      <c r="D4">
-        <v>9.2970467890301375E-2</v>
-      </c>
-      <c r="E4">
-        <v>0.99204572618253073</v>
-      </c>
-      <c r="F4">
-        <v>0.99328544815693809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-7.8782325745606424E-2</v>
-      </c>
-      <c r="C5">
-        <v>7.0694519808553E-2</v>
-      </c>
-      <c r="D5">
-        <v>9.6889324925546999E-2</v>
-      </c>
-      <c r="E5">
-        <v>1.2507384099952981</v>
-      </c>
-      <c r="F5">
-        <v>1.0351540517559847</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-0.47762515249387638</v>
-      </c>
-      <c r="C6">
-        <v>6.7925489537206257E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.11216577227900004</v>
-      </c>
-      <c r="E6">
-        <v>1.2017482969258255</v>
-      </c>
-      <c r="F6">
-        <v>1.1983658027565776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2.0149543624814782E-2</v>
-      </c>
-      <c r="C7">
-        <v>5.5739605894557939E-2</v>
-      </c>
-      <c r="D7">
-        <v>9.2558476551423199E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.98615375334778588</v>
-      </c>
-      <c r="F7">
-        <v>0.98888378157441381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-0.14562215397398381</v>
-      </c>
-      <c r="C8">
-        <v>6.0608322208160648E-2</v>
-      </c>
-      <c r="D8">
-        <v>9.9186730883133803E-2</v>
-      </c>
-      <c r="E8">
-        <v>1.0722918375625807</v>
-      </c>
-      <c r="F8">
-        <v>1.0596992644236525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-0.17253074870787294</v>
-      </c>
-      <c r="C9">
-        <v>6.2036376312189515E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.10056094878414662</v>
-      </c>
-      <c r="E9">
-        <v>1.0975571922788629</v>
-      </c>
-      <c r="F9">
-        <v>1.0743812454295283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-0.36178126537719824</v>
-      </c>
-      <c r="C10">
-        <v>8.3949724212984383E-2</v>
-      </c>
-      <c r="D10">
-        <v>0.10782391016711471</v>
-      </c>
-      <c r="E10">
-        <v>1.4852515423548929</v>
-      </c>
-      <c r="F10">
-        <v>1.151977863107523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-0.16249892844835087</v>
-      </c>
-      <c r="C11">
-        <v>6.2279740573082797E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.10008853812324482</v>
-      </c>
-      <c r="E11">
-        <v>1.1018628305312146</v>
-      </c>
-      <c r="F11">
-        <v>1.0693340659791504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-0.2350738194123359</v>
-      </c>
-      <c r="C12">
-        <v>6.1997034076011606E-2</v>
-      </c>
-      <c r="D12">
-        <v>0.10285077256065457</v>
-      </c>
-      <c r="E12">
-        <v>1.0968611433339648</v>
-      </c>
-      <c r="F12">
-        <v>1.0988454509741623</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6838CA-2977-476C-80EA-5DE7D66347DF}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-7.4974307976338297</v>
-      </c>
-      <c r="C2">
-        <v>5.4252340691516444E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.37313462626159849</v>
-      </c>
-      <c r="E2">
-        <v>0.59262141940553803</v>
-      </c>
-      <c r="F2">
-        <v>2.8204963029145249</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8256,19 +14818,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.74483071035783399</v>
+        <v>9.9849992556819249E-3</v>
       </c>
       <c r="C3">
-        <v>3.3900734191775271E-2</v>
+        <v>5.6298375761996852E-2</v>
       </c>
       <c r="D3">
-        <v>6.6369369253839905E-2</v>
+        <v>9.3005068826934004E-2</v>
       </c>
       <c r="E3">
-        <v>0.37031215537510037</v>
+        <v>0.99603959651422147</v>
       </c>
       <c r="F3">
-        <v>0.5016810218947233</v>
+        <v>0.99365512045858062</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8276,19 +14838,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.74483071035783355</v>
+        <v>1.0522173198404294E-2</v>
       </c>
       <c r="C4">
-        <v>3.3900734191775465E-2</v>
+        <v>5.6072633318157164E-2</v>
       </c>
       <c r="D4">
-        <v>6.6369369253839933E-2</v>
+        <v>9.2970467890301375E-2</v>
       </c>
       <c r="E4">
-        <v>0.37031215537510248</v>
+        <v>0.99204572618253073</v>
       </c>
       <c r="F4">
-        <v>0.50168102189472352</v>
+        <v>0.99328544815693809</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8296,19 +14858,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.76408277843159844</v>
+        <v>-7.8782325745606424E-2</v>
       </c>
       <c r="C5">
-        <v>4.3183938459508131E-2</v>
+        <v>7.0694519808553E-2</v>
       </c>
       <c r="D5">
-        <v>6.3470733484260466E-2</v>
+        <v>9.6889324925546999E-2</v>
       </c>
       <c r="E5">
-        <v>0.47171654861698803</v>
+        <v>1.2507384099952981</v>
       </c>
       <c r="F5">
-        <v>0.47977045424383252</v>
+        <v>1.0351540517559847</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8316,19 +14878,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.802664745061892</v>
+        <v>-0.47762515249387638</v>
       </c>
       <c r="C6">
-        <v>1.6299372640481924E-2</v>
+        <v>6.7925489537206257E-2</v>
       </c>
       <c r="D6">
-        <v>5.7982592929377873E-2</v>
+        <v>0.11216577227900004</v>
       </c>
       <c r="E6">
-        <v>0.17804498804109009</v>
+        <v>1.2017482969258255</v>
       </c>
       <c r="F6">
-        <v>0.43828601657583288</v>
+        <v>1.1983658027565776</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8336,19 +14898,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.66876704095235928</v>
+        <v>2.0149543624814782E-2</v>
       </c>
       <c r="C7">
-        <v>4.0437252614553283E-2</v>
+        <v>5.5739605894557939E-2</v>
       </c>
       <c r="D7">
-        <v>7.545519660227934E-2</v>
+        <v>9.2558476551423199E-2</v>
       </c>
       <c r="E7">
-        <v>0.44171332952357156</v>
+        <v>0.98615375334778588</v>
       </c>
       <c r="F7">
-        <v>0.57036010081576338</v>
+        <v>0.98888378157441381</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8356,19 +14918,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.91651523874633833</v>
+        <v>-0.14562215397398381</v>
       </c>
       <c r="C8">
-        <v>1.1452531706301741E-2</v>
+        <v>6.0608322208160648E-2</v>
       </c>
       <c r="D8">
-        <v>3.8101734595362105E-2</v>
+        <v>9.9186730883133803E-2</v>
       </c>
       <c r="E8">
-        <v>0.1251008806083968</v>
+        <v>1.0722918375625807</v>
       </c>
       <c r="F8">
-        <v>0.28800811824284239</v>
+        <v>1.0596992644236525</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8376,19 +14938,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.92367614145553945</v>
+        <v>-0.17253074870787294</v>
       </c>
       <c r="C9">
-        <v>1.5657220813430718E-2</v>
+        <v>6.2036376312189515E-2</v>
       </c>
       <c r="D9">
-        <v>3.6215966590860085E-2</v>
+        <v>0.10056094878414662</v>
       </c>
       <c r="E9">
-        <v>0.17103049018956323</v>
+        <v>1.0975571922788629</v>
       </c>
       <c r="F9">
-        <v>0.27375374110786294</v>
+        <v>1.0743812454295283</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8396,19 +14958,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.75028643886466961</v>
+        <v>-0.36178126537719824</v>
       </c>
       <c r="C10">
-        <v>4.4499623545828634E-2</v>
+        <v>8.3949724212984383E-2</v>
       </c>
       <c r="D10">
-        <v>6.5103605704047524E-2</v>
+        <v>0.10782391016711471</v>
       </c>
       <c r="E10">
-        <v>0.48608833706717519</v>
+        <v>1.4852515423548929</v>
       </c>
       <c r="F10">
-        <v>0.4921132113478392</v>
+        <v>1.151977863107523</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8416,19 +14978,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.90579563253328921</v>
+        <v>-0.16249892844835087</v>
       </c>
       <c r="C11">
-        <v>1.2098864623624497E-2</v>
+        <v>6.2279740573082797E-2</v>
       </c>
       <c r="D11">
-        <v>4.0372701293954968E-2</v>
+        <v>0.10008853812324482</v>
       </c>
       <c r="E11">
-        <v>0.1321610502893748</v>
+        <v>1.1018628305312146</v>
       </c>
       <c r="F11">
-        <v>0.30517418305327509</v>
+        <v>1.0693340659791504</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8436,276 +14998,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.92409189903402833</v>
+        <v>-0.2350738194123359</v>
       </c>
       <c r="C12">
-        <v>1.0690271895650621E-2</v>
+        <v>6.1997034076011606E-2</v>
       </c>
       <c r="D12">
-        <v>3.5957338818375303E-2</v>
+        <v>0.10285077256065457</v>
       </c>
       <c r="E12">
-        <v>0.11677439210696149</v>
+        <v>1.0968611433339648</v>
       </c>
       <c r="F12">
-        <v>0.27179879341664293</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBB706E-936B-426E-9584-982B52F25F87}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.59565299337453037</v>
-      </c>
-      <c r="C2">
-        <v>2.1291798817765266E-2</v>
-      </c>
-      <c r="E2">
-        <v>0.22515961744868382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.81260605441221867</v>
-      </c>
-      <c r="C3">
-        <v>3.0004159884475579E-2</v>
-      </c>
-      <c r="D3">
-        <v>5.7636570636683197E-2</v>
-      </c>
-      <c r="E3">
-        <v>0.31729236309620223</v>
-      </c>
-      <c r="F3">
-        <v>0.42906666244660907</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-2.433711971567617E+18</v>
-      </c>
-      <c r="C4">
-        <v>23565585.945139654</v>
-      </c>
-      <c r="D4">
-        <v>212049262.85378274</v>
-      </c>
-      <c r="E4">
-        <v>249204792.97101638</v>
-      </c>
-      <c r="F4">
-        <v>1578568406.861968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.70911437825682955</v>
-      </c>
-      <c r="C5">
-        <v>5.4345743541524917E-2</v>
-      </c>
-      <c r="D5">
-        <v>6.9600302437171677E-2</v>
-      </c>
-      <c r="E5">
-        <v>0.57470328977391394</v>
-      </c>
-      <c r="F5">
-        <v>0.51812883976454394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.86006487145915123</v>
-      </c>
-      <c r="C6">
-        <v>1.407360063855422E-2</v>
-      </c>
-      <c r="D6">
-        <v>5.4025982957883183E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.14882756328030206</v>
-      </c>
-      <c r="F6">
-        <v>0.40218819296619934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.92930547889534298</v>
-      </c>
-      <c r="C7">
-        <v>1.5562675044303842E-2</v>
-      </c>
-      <c r="D7">
-        <v>3.5594096470482658E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.16457444434097895</v>
-      </c>
-      <c r="F7">
-        <v>0.26497482425979901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.88474637707188875</v>
-      </c>
-      <c r="C8">
-        <v>1.2339430173212318E-2</v>
-      </c>
-      <c r="D8">
-        <v>4.8255792396745982E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.13048880468554228</v>
-      </c>
-      <c r="F8">
-        <v>0.35923288909577217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.89683653101396565</v>
-      </c>
-      <c r="C9">
-        <v>1.2498637262247248E-2</v>
-      </c>
-      <c r="D9">
-        <v>4.5303644276695185E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.13217241101533317</v>
-      </c>
-      <c r="F9">
-        <v>0.33725607252035905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.83831539277746026</v>
-      </c>
-      <c r="C10">
-        <v>2.2106324901772376E-2</v>
-      </c>
-      <c r="D10">
-        <v>5.5733362621826488E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.2337731866002011</v>
-      </c>
-      <c r="F10">
-        <v>0.41489852055586879</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.88292274929310344</v>
-      </c>
-      <c r="C11">
-        <v>1.2386741985957231E-2</v>
-      </c>
-      <c r="D11">
-        <v>4.8680707675737074E-2</v>
-      </c>
-      <c r="E11">
-        <v>0.13098912453872255</v>
-      </c>
-      <c r="F11">
-        <v>0.36239610610478762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.93239625605237408</v>
-      </c>
-      <c r="C12">
-        <v>1.0721950650240968E-2</v>
-      </c>
-      <c r="D12">
-        <v>3.6981531097954032E-2</v>
-      </c>
-      <c r="E12">
-        <v>0.11338404647603684</v>
-      </c>
-      <c r="F12">
-        <v>0.27530336980641962</v>
+        <v>1.0988454509741623</v>
       </c>
     </row>
   </sheetData>
